--- a/Management Accounting.xlsx
+++ b/Management Accounting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e12ce01b99ac21e8/GitHub/Finance/BUSI 430 Management Accounting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e12ce01b99ac21e8/GitHub/Investment Banking Technicals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1255" documentId="8_{F53C90D2-0365-4FFE-B83C-A64B747E4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC91B10-C273-4180-9752-E4633F03B42E}"/>
+  <xr:revisionPtr revIDLastSave="1654" documentId="8_{F53C90D2-0365-4FFE-B83C-A64B747E4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C42A7E2-4393-41A2-AA4A-7A71B064E526}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12660" windowHeight="16010" activeTab="6" xr2:uid="{61C2BC6E-EE60-412D-B102-A7A420EF0676}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12660" windowHeight="16010" firstSheet="5" activeTab="7" xr2:uid="{61C2BC6E-EE60-412D-B102-A7A420EF0676}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,11 @@
     <sheet name="10" sheetId="10" r:id="rId6"/>
     <sheet name="16" sheetId="11" r:id="rId7"/>
     <sheet name="9" sheetId="6" r:id="rId8"/>
-    <sheet name="7" sheetId="8" r:id="rId9"/>
-    <sheet name="8" sheetId="9" r:id="rId10"/>
+    <sheet name="15" sheetId="12" r:id="rId9"/>
+    <sheet name="5" sheetId="13" r:id="rId10"/>
+    <sheet name="6" sheetId="14" r:id="rId11"/>
+    <sheet name="7" sheetId="8" r:id="rId12"/>
+    <sheet name="8" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -45,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="298">
-  <si>
-    <t>BUSI 430 Practice Problems</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="387">
   <si>
     <t>300 glazed</t>
   </si>
@@ -362,15 +362,6 @@
     <t>only include variable costs as variable costs, then subtract whole fixed costs</t>
   </si>
   <si>
-    <t>that but adjust fixed manf costs and only report percent of that used</t>
-  </si>
-  <si>
-    <t>difference is the lack of including the unsold 400 units in costing</t>
-  </si>
-  <si>
-    <t>tiles</t>
-  </si>
-  <si>
     <t>labor costs</t>
   </si>
   <si>
@@ -386,15 +377,9 @@
     <t>var costing</t>
   </si>
   <si>
-    <t>val ending inv</t>
-  </si>
-  <si>
     <t>profit</t>
   </si>
   <si>
-    <t>don't partially allocate fixed period costs, just fixed overhead</t>
-  </si>
-  <si>
     <t>windows</t>
   </si>
   <si>
@@ -683,15 +668,6 @@
     <t>COGS final</t>
   </si>
   <si>
-    <t>Activity-Based Costing and Management</t>
-  </si>
-  <si>
-    <t>Job Costing</t>
-  </si>
-  <si>
-    <t>Techniques for Estimating Fixed and Variable Costs</t>
-  </si>
-  <si>
     <t>use linear regression tool</t>
   </si>
   <si>
@@ -902,9 +878,6 @@
     <t>She can offer a heavy discount of the long term stay since the clientele is more focused on spending at the hotel than paying for a room. On the other side, though, these customers may see the hotel as cheap and go elsewhere. In that case, she should increase her regular room rate</t>
   </si>
   <si>
-    <t>Support Department Activity</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -939,6 +912,303 @@
   </si>
   <si>
     <t>step down method</t>
+  </si>
+  <si>
+    <t>Management Accounting Practice Problems</t>
+  </si>
+  <si>
+    <t>HR then General Administration</t>
+  </si>
+  <si>
+    <t>after first step</t>
+  </si>
+  <si>
+    <t>GA then HR</t>
+  </si>
+  <si>
+    <t>reciprocal method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA = 60000 + 0.4 * HR </t>
+  </si>
+  <si>
+    <t>HR = 103000 + 0.2 * GA</t>
+  </si>
+  <si>
+    <t>solved amounts</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Limo</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>Initial Cost in Pool</t>
+  </si>
+  <si>
+    <t>service consumption pattern</t>
+  </si>
+  <si>
+    <t>provided by Maintenance</t>
+  </si>
+  <si>
+    <t>provided by Administration</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Expected hours offered</t>
+  </si>
+  <si>
+    <t>final balances</t>
+  </si>
+  <si>
+    <t>hourly rate</t>
+  </si>
+  <si>
+    <t>step down maintenance then administration</t>
+  </si>
+  <si>
+    <t>step down administration then maintenance</t>
+  </si>
+  <si>
+    <t>M = 94000 + 0.1 * A</t>
+  </si>
+  <si>
+    <t>A = 50000 + 0.1 * M</t>
+  </si>
+  <si>
+    <t>the hourly costs are all pretty similar because they are all calculated from patitioning of maintenance and administration services but with slightly difference amounts</t>
+  </si>
+  <si>
+    <t>4. Techniques for Estimating Fixed and Variable Costs</t>
+  </si>
+  <si>
+    <t>14. Job Costing</t>
+  </si>
+  <si>
+    <t>10. Activity-Based Costing and Management</t>
+  </si>
+  <si>
+    <t>16. Support Department Activity</t>
+  </si>
+  <si>
+    <t>9. Cost Allocations: Theory and Applications</t>
+  </si>
+  <si>
+    <t>15. Process Costing</t>
+  </si>
+  <si>
+    <t>5. Cost-Volume-Profit Analysis</t>
+  </si>
+  <si>
+    <t>6. Decision-Making in the Short Term</t>
+  </si>
+  <si>
+    <t>7. Operating Budgets: Bridging Planning and Control</t>
+  </si>
+  <si>
+    <t>8. Budgetary Control and Variance Analysis</t>
+  </si>
+  <si>
+    <t>variable costing profit</t>
+  </si>
+  <si>
+    <t>absorption costing profit</t>
+  </si>
+  <si>
+    <t>cost of ending inventory</t>
+  </si>
+  <si>
+    <t>that but adjust fixed manf costs and only report percent of that used but still subtract fixed sga whole</t>
+  </si>
+  <si>
+    <t>difference is the lack of including the fixed costs associated with unsold 400 units in costing</t>
+  </si>
+  <si>
+    <t>tiles per batch</t>
+  </si>
+  <si>
+    <t>contribution margin statement</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>var COGS</t>
+  </si>
+  <si>
+    <t>var SG&amp;A</t>
+  </si>
+  <si>
+    <t>materials cost</t>
+  </si>
+  <si>
+    <t>var sg&amp;a</t>
+  </si>
+  <si>
+    <t>contribution margin</t>
+  </si>
+  <si>
+    <t>fixed manf</t>
+  </si>
+  <si>
+    <t>fixed sg&amp;a</t>
+  </si>
+  <si>
+    <t>operating income</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>units in ending inventory</t>
+  </si>
+  <si>
+    <t>value per unit</t>
+  </si>
+  <si>
+    <t>value of ending inventory</t>
+  </si>
+  <si>
+    <t>so operating income you subtract appropriate var costs then subtract entire fixed costs</t>
+  </si>
+  <si>
+    <t>and value of ending inventory you just multiply # leftover units by the sum of their var costs but rem not with SG&amp;A</t>
+  </si>
+  <si>
+    <t>allocated fixed manf costs</t>
+  </si>
+  <si>
+    <t>gross margin</t>
+  </si>
+  <si>
+    <t>period costs</t>
+  </si>
+  <si>
+    <t>GAAP gross margin statement</t>
+  </si>
+  <si>
+    <t>non-GAAP contribution margin statement</t>
+  </si>
+  <si>
+    <t>inventoriable cost per unit</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>profit you allocate appropriate manf overhead expenses to subtract from revenue instead of enitre manf overhead</t>
+  </si>
+  <si>
+    <t>and value of ending inventory you add the unallocated overhead expenses to this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported income is higher with absorption costing when regular units sold in a period because the cost of units sold absorbs only the appropriate amount (in this case less than) of cost </t>
+  </si>
+  <si>
+    <t>initial fare</t>
+  </si>
+  <si>
+    <t>extra fee</t>
+  </si>
+  <si>
+    <t>final fare</t>
+  </si>
+  <si>
+    <t>he should allocate these costs of 400 to school 1 and 100 to school 2 because he was already to be reimbursed 400 from school 1. the additional cost to school 2 is just the $100 penalty</t>
+  </si>
+  <si>
+    <t>Sales volume</t>
+  </si>
+  <si>
+    <t>per unit</t>
+  </si>
+  <si>
+    <t>sg&amp;a</t>
+  </si>
+  <si>
+    <t>profit before taxes</t>
+  </si>
+  <si>
+    <t>end of March</t>
+  </si>
+  <si>
+    <t>allocated fixed manf overhead</t>
+  </si>
+  <si>
+    <t>units producted April</t>
+  </si>
+  <si>
+    <t>var manf cost</t>
+  </si>
+  <si>
+    <t>val of end inventory</t>
+  </si>
+  <si>
+    <t>end of April units</t>
+  </si>
+  <si>
+    <t>Cost of these goods</t>
+  </si>
+  <si>
+    <t>the profit is higher under absorption costing because quick test sold more units than it produced. This means that the expenses are lower and that # sold &lt; # made so less cost is absorbed rather than assuming # sold = # made</t>
+  </si>
+  <si>
+    <t>var costing income</t>
+  </si>
+  <si>
+    <t>fixed ov ending inventory</t>
+  </si>
+  <si>
+    <t>fixed ov opening inv</t>
+  </si>
+  <si>
+    <t>abs costing income</t>
+  </si>
+  <si>
+    <t>business class</t>
+  </si>
+  <si>
+    <t>2nd b class ticket</t>
+  </si>
+  <si>
+    <t>daily hotel</t>
+  </si>
+  <si>
+    <t>alternative 2nd b class price</t>
+  </si>
+  <si>
+    <t>daily meals</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>in coach</t>
+  </si>
+  <si>
+    <t>The company should average out the total expense to 3400 per ticket</t>
+  </si>
+  <si>
+    <t>JP should take this offer up because the daily expenses incurred 200 + 450 &lt; 1800 the price of his wife's ticket</t>
+  </si>
+  <si>
+    <t>In this scenario the extra day and two tickets are 1800 + 1800 + 450 + 200 = 4250 &lt; 5000 &lt; 6800 the alternative options. JP should take this option</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1326,19 +1592,19 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1346,15 +1612,15 @@
         <v>1.36</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0.8</v>
@@ -1365,7 +1631,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -1374,15 +1640,15 @@
         <v>0.6</v>
       </c>
       <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1396,23 +1662,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f>(C6-D6)*300 + (C7-D7)*250+(C8-D8)*200</f>
@@ -1429,10 +1695,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1474,7 +1740,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <f>(SUM(D16:D19))</f>
@@ -1487,7 +1753,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <f>-E21</f>
@@ -1500,10 +1766,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1513,7 +1779,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1521,7 +1787,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <f>C28+40</f>
@@ -1530,10 +1796,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1543,34 +1809,34 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1579,115 +1845,488 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD0019C-C6F8-4320-815D-EFECFFAEBA6B}">
-  <dimension ref="B2:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0571809C-0523-4EF0-AA09-490785578CBF}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0832F0C9-E4F9-4241-BBD3-E7588556F34F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA550D1-BAB1-4F6B-AEAA-D91F35147040}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <f>0.15*E6</f>
+        <v>2250</v>
+      </c>
+      <c r="E4">
+        <f>0.15*F6</f>
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <f>D4</f>
+        <v>2250</v>
+      </c>
+      <c r="F5">
+        <f>E4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>15000</v>
+      </c>
+      <c r="F6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <f>D4-D5+D6</f>
+        <v>10750</v>
+      </c>
+      <c r="E7">
+        <f>E4-E5+E6</f>
+        <v>15750</v>
+      </c>
+      <c r="F7">
+        <f>F4-F5+F6</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18">
+        <f>D11-D12+D13</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <f>D18*2</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21">
+        <f>D19-D15+D16</f>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30">
+        <f>D24-D25+D26</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31">
+        <f>D27*D30</f>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32">
+        <f>D31*D28</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+      <c r="F34">
+        <v>0.25</v>
+      </c>
+      <c r="G34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36">
+        <v>120000</v>
+      </c>
+      <c r="E36">
+        <v>135000</v>
+      </c>
+      <c r="F36">
+        <v>140000</v>
+      </c>
+      <c r="G36">
+        <v>135000</v>
+      </c>
+      <c r="H36">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37">
+        <f>D36*D34</f>
+        <v>36000</v>
+      </c>
+      <c r="E37">
+        <f>D36*E34+E36*D34</f>
+        <v>88500</v>
+      </c>
+      <c r="F37">
+        <f>F36*D34+E37*E34+D37*F34</f>
+        <v>86400</v>
+      </c>
+      <c r="G37">
+        <f>G36*D34+F36*E34+E36*F34+D36*G34</f>
+        <v>136250</v>
+      </c>
+      <c r="H37">
+        <f>H36*D34+G36*E34+F36*F34+E36*G34</f>
+        <v>140750</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <f>G37</f>
+        <v>136250</v>
+      </c>
+      <c r="H39">
+        <f>H37</f>
+        <v>140750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD0019C-C6F8-4320-815D-EFECFFAEBA6B}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>8.34</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D7">
         <v>42000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>975</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>98100</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>43000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>20975</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <f>D3*D4</f>
         <v>95000</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <f>D9*D4</f>
         <v>97500</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16">
         <f>D10</f>
@@ -1696,21 +2335,21 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <f>D3*D5</f>
         <v>33250</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G17">
         <f>D9*D5</f>
         <v>34125</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J17">
         <f>G17</f>
@@ -1719,21 +2358,21 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <f>D7</f>
         <v>42000</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G18">
         <f>D7</f>
         <v>42000</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J18">
         <f>D11</f>
@@ -1742,7 +2381,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <f>D16-D17-D18</f>
@@ -1759,7 +2398,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D21">
         <f>G19-D19</f>
@@ -1768,7 +2407,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D22">
         <f>J16-G16</f>
@@ -1777,7 +2416,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23">
         <f>G17-J17</f>
@@ -1786,7 +2425,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D24">
         <f>G18-J18</f>
@@ -1800,7 +2439,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D27">
         <f>2</f>
@@ -1816,7 +2455,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28">
         <v>1.5</v>
@@ -1831,7 +2470,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D30">
         <v>300</v>
@@ -1847,7 +2486,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D31">
         <v>650</v>
@@ -1862,7 +2501,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D32">
         <v>480</v>
@@ -1877,7 +2516,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <f>(E27-F31)*D31</f>
@@ -1886,7 +2525,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D35">
         <f>(E30-D31)*E27</f>
@@ -1895,7 +2534,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D36">
         <f>(E28-F32)*D32</f>
@@ -1904,7 +2543,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D37">
         <f>(F30-D32)*E28</f>
@@ -1918,7 +2557,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D40">
         <v>3150</v>
@@ -1926,7 +2565,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D41">
         <v>-4500</v>
@@ -1934,7 +2573,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D42">
         <v>18000</v>
@@ -1942,7 +2581,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D43">
         <v>1.5</v>
@@ -1950,7 +2589,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D45">
         <f>D41/D43+D42</f>
@@ -1959,7 +2598,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D46">
         <f>D40/D45+D43</f>
@@ -1983,7 +2622,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1991,13 +2630,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2024,26 +2663,26 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2069,7 +2708,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>640</v>
@@ -2081,7 +2720,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <f>125+250</f>
@@ -2094,18 +2733,18 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2115,7 +2754,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>300000</v>
@@ -2129,7 +2768,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <f>2*120000</f>
@@ -2145,7 +2784,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <f>2*50000</f>
@@ -2154,7 +2793,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>170000</v>
@@ -2162,12 +2801,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <f>C20</f>
@@ -2184,34 +2823,34 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2870,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2241,18 +2880,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2260,7 +2899,7 @@
         <v>3.4</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>90000</v>
@@ -2268,7 +2907,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>75000</v>
@@ -2276,7 +2915,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>80000</v>
@@ -2284,7 +2923,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>100000</v>
@@ -2292,7 +2931,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>125000</v>
@@ -2300,7 +2939,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>175000</v>
@@ -2308,7 +2947,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>200000</v>
@@ -2316,7 +2955,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>900000</v>
@@ -2324,7 +2963,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1250000</v>
@@ -2332,7 +2971,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>265000</v>
@@ -2340,10 +2979,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <f>D12+D7-D6</f>
@@ -2352,10 +2991,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <f>(D13-D12)/2.5</f>
@@ -2364,10 +3003,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <f>D18*1.5</f>
@@ -2376,10 +3015,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <f>D17+D18</f>
@@ -2388,10 +3027,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
       </c>
       <c r="D21">
         <f>D18+D19</f>
@@ -2400,10 +3039,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
       </c>
       <c r="D22">
         <f>D13+D8-D9</f>
@@ -2412,10 +3051,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
       </c>
       <c r="D23">
         <f>D22+D10-D11</f>
@@ -2429,10 +3068,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <f>130000+30000+70000-20000</f>
@@ -2441,10 +3080,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <f>D26+125000*130/250+15000+45000-50000-25000</f>
@@ -2453,10 +3092,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <f>120000+125000*120/250</f>
@@ -2465,10 +3104,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <f>30000-45000+90000-80000+250000-120000-60000+25000-50000</f>
@@ -2480,15 +3119,15 @@
         <v>3.52</v>
       </c>
       <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>280000</v>
@@ -2499,7 +3138,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>690000</v>
@@ -2510,7 +3149,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>985000</v>
@@ -2521,7 +3160,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>2250000</v>
@@ -2532,7 +3171,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <f>1358500*690/(545+690)</f>
@@ -2545,7 +3184,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <f>C33+C34+C36+C32-C35</f>
@@ -2563,7 +3202,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>80000</v>
@@ -2571,7 +3210,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41">
         <v>150000</v>
@@ -2579,7 +3218,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <f>0.8</f>
@@ -2588,7 +3227,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>200000</v>
@@ -2596,7 +3235,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44">
         <v>150000</v>
@@ -2604,7 +3243,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>125000</v>
@@ -2612,7 +3251,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>800000</v>
@@ -2620,7 +3259,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <f>1.5</f>
@@ -2629,7 +3268,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>1500000</v>
@@ -2637,7 +3276,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49">
         <f>C48*0.4</f>
@@ -2646,7 +3285,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50">
         <f>0.05*C48+60000+140000</f>
@@ -2655,10 +3294,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52">
         <f>(C41-C40)/0.2</f>
@@ -2667,10 +3306,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53">
         <f>C52*0.8</f>
@@ -2679,10 +3318,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <f>(C46-C53)/2.5</f>
@@ -2691,10 +3330,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <f>C54*1.5</f>
@@ -2703,10 +3342,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <f>C53+C54</f>
@@ -2715,10 +3354,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <f>C54+C55</f>
@@ -2727,10 +3366,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <f>C46+C43-C44</f>
@@ -2739,10 +3378,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <f>C58-C60+C45</f>
@@ -2751,10 +3390,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <f>C48-C49</f>
@@ -2771,7 +3410,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2781,7 +3420,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2791,10 +3430,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <f>(33750-27500)/2500</f>
@@ -2803,7 +3442,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f>27500-D3*5000</f>
@@ -2812,12 +3451,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f>2.5*5500+15000</f>
@@ -2829,20 +3468,20 @@
         <v>4.45</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f>2.445*5500 + 15320.95</f>
@@ -2867,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2877,7 +3516,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1200000</v>
@@ -2885,7 +3524,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>500000</v>
@@ -2893,7 +3532,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -2901,10 +3540,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <f>(C3-C4)/C5</f>
@@ -2913,7 +3552,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <f>C4/C5</f>
@@ -2922,7 +3561,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <f>D7+D8</f>
@@ -2931,7 +3570,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>13000</v>
@@ -2961,7 +3600,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17">
         <v>525000</v>
@@ -2969,7 +3608,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C18">
         <v>150000</v>
@@ -2977,7 +3616,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C20">
         <v>530000</v>
@@ -2985,7 +3624,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>140000</v>
@@ -2993,7 +3632,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C23">
         <f>C17/C18</f>
@@ -3002,7 +3641,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C24">
         <f>C23*C21</f>
@@ -3011,7 +3650,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C26">
         <f>C20-C24</f>
@@ -3023,12 +3662,12 @@
         <v>14.31</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>100000</v>
@@ -3040,7 +3679,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C30">
         <v>75000</v>
@@ -3052,7 +3691,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C31">
         <v>50000</v>
@@ -3060,7 +3699,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C32">
         <v>25000</v>
@@ -3072,7 +3711,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -3080,7 +3719,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C35">
         <v>-10000</v>
@@ -3088,19 +3727,19 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C37">
         <f>C29+C30+C32</f>
         <v>200000</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C38">
         <f>C37+C35</f>
@@ -3109,7 +3748,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D40">
         <f>D32*C38</f>
@@ -3123,7 +3762,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C43">
         <v>280000</v>
@@ -3131,7 +3770,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C44">
         <v>260000</v>
@@ -3139,7 +3778,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>200000</v>
@@ -3147,7 +3786,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C47">
         <v>150000</v>
@@ -3155,7 +3794,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C48">
         <v>100000</v>
@@ -3163,7 +3802,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C49">
         <v>50000</v>
@@ -3171,7 +3810,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C51">
         <f>C43-C44</f>
@@ -3180,7 +3819,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C52">
         <f>C46-C51</f>
@@ -3189,7 +3828,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C54">
         <f>C46/(C46+C47+C49)</f>
@@ -3198,7 +3837,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C56">
         <f>C46-C51*C54</f>
@@ -3212,7 +3851,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C59">
         <v>60000</v>
@@ -3220,7 +3859,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C60">
         <v>80000</v>
@@ -3228,7 +3867,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C61">
         <v>80000</v>
@@ -3236,7 +3875,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C62">
         <v>105000</v>
@@ -3244,7 +3883,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C63">
         <v>300000</v>
@@ -3252,7 +3891,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C64">
         <v>320000</v>
@@ -3260,7 +3899,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C65">
         <v>225000</v>
@@ -3268,7 +3907,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <f>C65+2.2*C67</f>
@@ -3277,7 +3916,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C67">
         <v>300000</v>
@@ -3285,7 +3924,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68">
         <v>860000</v>
@@ -3293,7 +3932,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C69">
         <f>C63+C68</f>
@@ -3302,7 +3941,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C70">
         <v>400000</v>
@@ -3310,10 +3949,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D72">
         <f>C60-C59+C65</f>
@@ -3322,10 +3961,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <f>C67</f>
@@ -3334,10 +3973,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <f>C61-C62+C66</f>
@@ -3346,10 +3985,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <f>1.2*C67-C70</f>
@@ -3358,10 +3997,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76">
         <f>C63-C64+C68</f>
@@ -3370,7 +4009,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D77">
         <f>D76-D75</f>
@@ -3387,7 +4026,7 @@
   <dimension ref="A2:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3397,7 +4036,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3407,7 +4046,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D5">
         <v>2500</v>
@@ -3415,7 +4054,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D6">
         <v>14.5</v>
@@ -3423,7 +4062,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -3431,7 +4070,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D9">
         <v>3.5</v>
@@ -3439,7 +4078,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>3500</v>
@@ -3447,7 +4086,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D11">
         <v>14500</v>
@@ -3455,7 +4094,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D13">
         <v>15000</v>
@@ -3463,7 +4102,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D14">
         <v>7000</v>
@@ -3471,7 +4110,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D15">
         <v>4000</v>
@@ -3479,7 +4118,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D16">
         <v>4000</v>
@@ -3487,7 +4126,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D17">
         <v>2500</v>
@@ -3495,10 +4134,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D19">
         <f>D6*D13</f>
@@ -3507,10 +4146,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D21">
         <f>D13*(D9+D7)+(3+2+2)*D10+3*D11</f>
@@ -3524,18 +4163,18 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D25">
         <v>1000000</v>
@@ -3549,7 +4188,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -3563,7 +4202,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3577,7 +4216,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D28">
         <v>2.2000000000000002</v>
@@ -3591,7 +4230,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D29">
         <v>10000</v>
@@ -3605,7 +4244,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D30">
         <f>D31 * D28/(D28*D25+E28*E25+F28*F25)</f>
@@ -3622,7 +4261,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>12776400</v>
@@ -3630,10 +4269,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D33">
         <f>D26-D27-D30</f>
@@ -3650,7 +4289,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D34">
         <f>D33*D25</f>
@@ -3667,10 +4306,10 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D36">
         <v>7300800</v>
@@ -3678,7 +4317,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D37">
         <f>D31-D36</f>
@@ -3687,7 +4326,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D38">
         <f>D36 * D28/(D28*D25+E28*E25+F28*F25)</f>
@@ -3704,7 +4343,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D39">
         <f>D25/D29</f>
@@ -3725,7 +4364,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D40">
         <f>(D37*D39/G39)/D25</f>
@@ -3742,7 +4381,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D41">
         <f>D26-D27-D38-D40</f>
@@ -3759,7 +4398,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D42">
         <f>D41*D25</f>
@@ -3781,15 +4420,15 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D46">
         <v>1000</v>
@@ -3800,7 +4439,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D47">
         <v>350</v>
@@ -3811,7 +4450,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D48">
         <v>100</v>
@@ -3822,7 +4461,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D49">
         <v>75</v>
@@ -3833,7 +4472,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D51">
         <v>390000</v>
@@ -3841,10 +4480,10 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D53">
         <f>D51*D49*D46/(D49*D46+E46*E49)/D46</f>
@@ -3857,10 +4496,10 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D55">
         <v>156000</v>
@@ -3868,7 +4507,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D56">
         <v>136500</v>
@@ -3876,7 +4515,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D57">
         <v>58500</v>
@@ -3884,7 +4523,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D58">
         <f>D51-SUM(D55:D57)</f>
@@ -3893,7 +4532,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D59">
         <v>50</v>
@@ -3904,21 +4543,21 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D63">
         <f>D46*D47</f>
@@ -3935,12 +4574,12 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D66">
         <f>D49*D46</f>
@@ -3957,7 +4596,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D67">
         <f>D46*D48</f>
@@ -3974,7 +4613,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D68">
         <f>D55*D66/(D66+E66)</f>
@@ -3991,7 +4630,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D69">
         <f>D56*D59/(D59+E59)</f>
@@ -4008,7 +4647,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D70">
         <f>D57/2</f>
@@ -4025,7 +4664,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D71">
         <f>D63-SUM(D66:D70)</f>
@@ -4042,7 +4681,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F72">
         <f>D58</f>
@@ -4051,7 +4690,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F73">
         <f>F71-F72</f>
@@ -4060,7 +4699,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D74">
         <f>D71/D46</f>
@@ -4073,10 +4712,10 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
@@ -4086,161 +4725,161 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D79" s="2">
         <v>1800</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D80">
         <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D81">
         <v>300</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D82">
         <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D83">
         <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D84">
         <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D85">
         <v>50</v>
       </c>
       <c r="E85" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D86">
         <v>450</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D87">
         <f>D86*0.4</f>
         <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D88">
         <v>400</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D89">
         <f>D88*0.4</f>
         <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D90">
         <v>2500</v>
       </c>
       <c r="E90" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D91">
         <f>D90*0.4</f>
         <v>1000</v>
       </c>
       <c r="E91" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D94">
         <f>12*(D79+D86)+D90-(D82+D83+12*(D87+D80)+3*D84+9*D85+4*D81+D91)</f>
@@ -4253,7 +4892,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D95">
         <f>2*(D79+D86)+D88-(D82+D83+2*(D80+D87+D84)+D89+D81)</f>
@@ -4266,10 +4905,10 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4280,11 +4919,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D70D01-8F13-40FC-AAF7-7F3557C9EB74}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4295,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4303,24 +4940,24 @@
         <v>16.239999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D4">
         <v>103000</v>
@@ -4341,17 +4978,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3">
         <v>0.4</v>
@@ -4365,7 +5002,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D9" s="3">
         <v>0.2</v>
@@ -4379,7 +5016,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D12">
         <f>D4-SUM(D8:G8)*D4+D9*E4</f>
@@ -4407,7 +5044,490 @@
         <v>16.25</v>
       </c>
       <c r="C14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16">
+        <f>E4+E8*D4</f>
+        <v>101200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17">
+        <f>D4-D4*SUM(D8:G8)+E16*D9</f>
+        <v>20240</v>
+      </c>
+      <c r="E17">
+        <f>E16-E16*SUM(D9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>F4+D4*F8+E16*F9</f>
+        <v>451620</v>
+      </c>
+      <c r="G17">
+        <f>G4+G8*D4+G9*E16</f>
+        <v>501140</v>
+      </c>
+      <c r="H17">
+        <f>SUM(D17:G17)</f>
+        <v>973000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19">
+        <f>D4+D9*E4</f>
+        <v>115000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f>D19-SUM(D8:G8)*D19</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>E4-SUM(D9:G9)*E4+E8*D19</f>
+        <v>46000</v>
+      </c>
+      <c r="F20">
+        <f>F4+F8*D19+F9*E4</f>
+        <v>430500</v>
+      </c>
+      <c r="G20">
+        <f>G4+G8*D19+G9*E4</f>
+        <v>496500</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H18:H20" si="0">SUM(D20:G20)</f>
+        <v>973000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25">
+        <v>125000</v>
+      </c>
+      <c r="E25">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27">
+        <f>D25-D25*SUM(D8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>E25-E25*SUM(D9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>F8*D25+F9*E25+F4</f>
+        <v>463500</v>
+      </c>
+      <c r="G27">
+        <f>G4+G8*D25+E25*G9</f>
+        <v>509500</v>
+      </c>
+      <c r="H27">
+        <f>SUM(D27:G27)</f>
+        <v>973000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" t="s">
         <v>297</v>
+      </c>
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>94000</v>
+      </c>
+      <c r="E32">
+        <v>50000</v>
+      </c>
+      <c r="F32">
+        <v>240000</v>
+      </c>
+      <c r="G32">
+        <v>324000</v>
+      </c>
+      <c r="H32">
+        <f>SUM(D32:G32)</f>
+        <v>708000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
+        <v>4500</v>
+      </c>
+      <c r="G34">
+        <v>4500</v>
+      </c>
+      <c r="H34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D35">
+        <f>D34/SUM($D34:$G34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:G35" si="1">E34/SUM($D34:$G34)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37">
+        <f>D36/SUM($D36:$G36)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="2">E36/SUM($D36:$G36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="3">F36/SUM($D36:$G36)</f>
+        <v>0.36</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="4">G36/SUM($D36:$G36)</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
+      <c r="F38">
+        <v>10000</v>
+      </c>
+      <c r="G38">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41">
+        <f>D32-D32*SUM(D35:G35)+D37*E32</f>
+        <v>5000</v>
+      </c>
+      <c r="E41">
+        <f>E32-E32*SUM(D37:G37)+E35*D32</f>
+        <v>9400</v>
+      </c>
+      <c r="F41">
+        <f>F32+F35*D32+F37*E32</f>
+        <v>300300</v>
+      </c>
+      <c r="G41">
+        <f>G32+G35*D32+G37*E32</f>
+        <v>393300</v>
+      </c>
+      <c r="H41">
+        <f>SUM(D41:G41)</f>
+        <v>708000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>309</v>
+      </c>
+      <c r="F42">
+        <f>F41/F$38</f>
+        <v>30.03</v>
+      </c>
+      <c r="G42">
+        <f>G41/G$38</f>
+        <v>19.664999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <f>E32+E35*D32</f>
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46">
+        <f>D32-SUM(D35:G35)*D32 +D37*E45</f>
+        <v>5940</v>
+      </c>
+      <c r="E46">
+        <f>E45-E45*SUM(D37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>F32+F35*D32+F37*E45</f>
+        <v>303684</v>
+      </c>
+      <c r="G46">
+        <f>G32+G35*D32+G37*E45</f>
+        <v>398376</v>
+      </c>
+      <c r="H46">
+        <f>SUM(D46:G46)</f>
+        <v>708000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F47">
+        <f>F46/F$38</f>
+        <v>30.368400000000001</v>
+      </c>
+      <c r="G47">
+        <f>G46/G$38</f>
+        <v>19.918800000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <f>D32+E32*D37</f>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50">
+        <f>D49-D49*SUM(D35:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>E32-E32*SUM(D37:G37)+E35*D49</f>
+        <v>9900</v>
+      </c>
+      <c r="F50">
+        <f>F32+F35*D49+F37*E32</f>
+        <v>302550</v>
+      </c>
+      <c r="G50">
+        <f>G32+G35*D49+G37*E32</f>
+        <v>395550</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H47:H57" si="5">SUM(D50:G50)</f>
+        <v>708000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>309</v>
+      </c>
+      <c r="F51">
+        <f>F50/F$38</f>
+        <v>30.254999999999999</v>
+      </c>
+      <c r="G51">
+        <f>G50/G$38</f>
+        <v>19.7775</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>100000</v>
+      </c>
+      <c r="E55">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57">
+        <f>D55-D55*SUM(D35:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>E55-E55*SUM(D37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>F32+F35*D55+F37*E55</f>
+        <v>306600</v>
+      </c>
+      <c r="G57">
+        <f>G32+G35*D55+E55*G37</f>
+        <v>401400</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>708000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58">
+        <f>F57/F$38</f>
+        <v>30.66</v>
+      </c>
+      <c r="G58">
+        <f>G57/G$38</f>
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4417,241 +5537,844 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5854F927-407D-4435-A00B-79CB19DD567D}">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>24000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f>C9*(C4-C5)</f>
+        <v>6400</v>
+      </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="D12">
         <f>(C6-C9-C10)*C5-C7-C8</f>
         <v>10800</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>(C4-C5)*(C9+C7/C4)</f>
+        <v>11200</v>
+      </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="D13">
         <f>C5*(C6-C7/C4-C9-C10)-C8</f>
         <v>15600</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9.41</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="C17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17">
+        <f>C22*C23</f>
+        <v>6075000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17">
+        <f>C22*C23</f>
+        <v>6075000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="C18">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19">
+        <f>C22*(C19+C18)</f>
+        <v>2835000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>333</v>
+      </c>
+      <c r="I19">
+        <f>C22*(C18+C19)</f>
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20">
+        <f>C22*C24</f>
+        <v>675000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I20">
+        <f>C20*C22/C21</f>
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>15000</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21">
+        <f>F17-F19-F20</f>
+        <v>2565000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I21">
+        <f>I17-I19-I20</f>
+        <v>1890000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>13500</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>450</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23">
+        <f>C20</f>
+        <v>1500000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23">
+        <f>C24*C22</f>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24">
+        <f>C25</f>
+        <v>625000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>339</v>
+      </c>
+      <c r="I24">
+        <f>C25</f>
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="C25">
         <v>625000</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27">
-        <f>C22*(C23-C24-C18-C19)-C20-C25</f>
+      <c r="E25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25">
+        <f>F21-F23-F24</f>
         <v>440000</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28">
-        <f>-(C22/C21)*(C20)-C25+C22*(C23-C24-C18-C19)</f>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25">
+        <f>I21-I23-I24</f>
         <v>590000</v>
       </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29">
-        <f>E28-E27</f>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>341</v>
+      </c>
+      <c r="H26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27">
+        <f>C21-C22</f>
+        <v>1500</v>
+      </c>
+      <c r="H27" t="s">
+        <v>342</v>
+      </c>
+      <c r="I27">
+        <f>C21-C22</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28">
+        <f>C18+C19</f>
+        <v>210</v>
+      </c>
+      <c r="H28" t="s">
+        <v>352</v>
+      </c>
+      <c r="I28">
+        <f>C18+C19+C20/C21</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29">
+        <f>F28*F27</f>
+        <v>315000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>344</v>
+      </c>
+      <c r="I29">
+        <f>I27*I28</f>
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>353</v>
+      </c>
+      <c r="F30">
+        <f>F25-F29</f>
+        <v>125000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>353</v>
+      </c>
+      <c r="I30">
+        <f>I25-I29</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41">
+        <f>C40+C39</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46">
+        <v>1500</v>
+      </c>
+      <c r="D46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46">
+        <v>11250</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47">
+        <v>750</v>
+      </c>
+      <c r="H47">
+        <v>45000</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48">
         <v>150000</v>
+      </c>
+      <c r="D48">
+        <f>C48/$C$46</f>
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>105000</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D52" si="0">C49/$C$46</f>
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50">
+        <f>C48-C49</f>
+        <v>45000</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>363</v>
+      </c>
+      <c r="C51">
+        <v>18000</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51">
+        <f>G47+G48-C46</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C52">
+        <v>27000</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54">
+        <f>G51*G49</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <f>((C49-H47)/G47-G49)*G48</f>
+        <v>37500</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60">
+        <f>C48</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62">
+        <f>H47-H46+G47*G49</f>
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <f>C51-G50</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64">
+        <f>D60-D62-D63</f>
+        <v>72750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66">
+        <f>C56</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67">
+        <f>G50</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68">
+        <f>D64-D66-D67</f>
+        <v>23250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72">
+        <f>D68</f>
+        <v>23250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>374</v>
+      </c>
+      <c r="D73">
+        <f>(G47+G48-C46)*((C49-H47)/G47-G49)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>375</v>
+      </c>
+      <c r="D74">
+        <f>H46</f>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>376</v>
+      </c>
+      <c r="D75">
+        <f>D72+D73-D74</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78">
+        <v>5000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>378</v>
+      </c>
+      <c r="D79">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>380</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>382</v>
+      </c>
+      <c r="D85">
+        <v>1800</v>
+      </c>
+      <c r="E85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>1800</v>
+      </c>
+      <c r="E86" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4660,321 +6383,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA550D1-BAB1-4F6B-AEAA-D91F35147040}">
-  <dimension ref="B2:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E35AA1-A86E-4AAE-ACC0-DDA3CDB3A684}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <f>0.15*E6</f>
-        <v>2250</v>
-      </c>
-      <c r="E4">
-        <f>0.15*F6</f>
-        <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <v>1500</v>
-      </c>
-      <c r="E5">
-        <f>D4</f>
-        <v>2250</v>
-      </c>
-      <c r="F5">
-        <f>E4</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6">
-        <v>15000</v>
-      </c>
-      <c r="F6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7">
-        <f>D4-D5+D6</f>
-        <v>10750</v>
-      </c>
-      <c r="E7">
-        <f>E4-E5+E6</f>
-        <v>15750</v>
-      </c>
-      <c r="F7">
-        <f>F4-F5+F6</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18">
-        <f>D11-D12+D13</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19">
-        <f>D18*2</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21">
-        <f>D19-D15+D16</f>
-        <v>910</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>7.38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30">
-        <f>D24-D25+D26</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31">
-        <f>D27*D30</f>
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32">
-        <f>D31*D28</f>
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D34">
-        <v>0.3</v>
-      </c>
-      <c r="E34">
-        <v>0.4</v>
-      </c>
-      <c r="F34">
-        <v>0.25</v>
-      </c>
-      <c r="G34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>7.43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36">
-        <v>120000</v>
-      </c>
-      <c r="E36">
-        <v>135000</v>
-      </c>
-      <c r="F36">
-        <v>140000</v>
-      </c>
-      <c r="G36">
-        <v>135000</v>
-      </c>
-      <c r="H36">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37">
-        <f>D36*D34</f>
-        <v>36000</v>
-      </c>
-      <c r="E37">
-        <f>D36*E34+E36*D34</f>
-        <v>88500</v>
-      </c>
-      <c r="F37">
-        <f>F36*D34+E37*E34+D37*F34</f>
-        <v>86400</v>
-      </c>
-      <c r="G37">
-        <f>G36*D34+F36*E34+E36*F34+D36*G34</f>
-        <v>136250</v>
-      </c>
-      <c r="H37">
-        <f>H36*D34+G36*E34+F36*F34+E36*G34</f>
-        <v>140750</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G39">
-        <f>G37</f>
-        <v>136250</v>
-      </c>
-      <c r="H39">
-        <f>H37</f>
-        <v>140750</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>15.32</v>
       </c>
     </row>
   </sheetData>

--- a/Management Accounting.xlsx
+++ b/Management Accounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e12ce01b99ac21e8/GitHub/Investment Banking Technicals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1654" documentId="8_{F53C90D2-0365-4FFE-B83C-A64B747E4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C42A7E2-4393-41A2-AA4A-7A71B064E526}"/>
+  <xr:revisionPtr revIDLastSave="2561" documentId="8_{F53C90D2-0365-4FFE-B83C-A64B747E4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E32F7C0-2C5B-4B66-B972-B77AF8652DF9}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12660" windowHeight="16010" firstSheet="5" activeTab="7" xr2:uid="{61C2BC6E-EE60-412D-B102-A7A420EF0676}"/>
+    <workbookView xWindow="12390" yWindow="0" windowWidth="12660" windowHeight="16010" firstSheet="6" activeTab="12" xr2:uid="{61C2BC6E-EE60-412D-B102-A7A420EF0676}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="7" sheetId="8" r:id="rId12"/>
     <sheet name="8" sheetId="9" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="603">
   <si>
     <t>300 glazed</t>
   </si>
@@ -1209,6 +1209,654 @@
   </si>
   <si>
     <t>In this scenario the extra day and two tickets are 1800 + 1800 + 450 + 200 = 4250 &lt; 5000 &lt; 6800 the alternative options. JP should take this option</t>
+  </si>
+  <si>
+    <t>end of May portable WIP</t>
+  </si>
+  <si>
+    <t>end of June portable WIP</t>
+  </si>
+  <si>
+    <t>Units completed in June</t>
+  </si>
+  <si>
+    <t>WIP by materials</t>
+  </si>
+  <si>
+    <t>WIP by conversion costs</t>
+  </si>
+  <si>
+    <t>materials cost in June</t>
+  </si>
+  <si>
+    <t>conversion cost in June</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>conversion cost</t>
+  </si>
+  <si>
+    <t>Step 1 track the physical flow</t>
+  </si>
+  <si>
+    <t>Beg inventory June 1</t>
+  </si>
+  <si>
+    <t>Started during June</t>
+  </si>
+  <si>
+    <t>Step 2 compute equivalent units</t>
+  </si>
+  <si>
+    <t>Units completed during June</t>
+  </si>
+  <si>
+    <t>Units in progress end of June</t>
+  </si>
+  <si>
+    <t>Total units accounted for</t>
+  </si>
+  <si>
+    <t>Step 3 collect costs to allocate</t>
+  </si>
+  <si>
+    <t>Costs incurred during June</t>
+  </si>
+  <si>
+    <t>Total costs to account for</t>
+  </si>
+  <si>
+    <t>Step 4 calculate the rate per unit</t>
+  </si>
+  <si>
+    <t>cost per unit</t>
+  </si>
+  <si>
+    <t>Step 5 allocate costs</t>
+  </si>
+  <si>
+    <t>Units completed in June COGM</t>
+  </si>
+  <si>
+    <t>Units in progress at eom end WIP</t>
+  </si>
+  <si>
+    <t>Total costs accounted for</t>
+  </si>
+  <si>
+    <t>EOM February WIP</t>
+  </si>
+  <si>
+    <t>EOM March WIP</t>
+  </si>
+  <si>
+    <t>units completed in March</t>
+  </si>
+  <si>
+    <t>WIP percent complete</t>
+  </si>
+  <si>
+    <t>Total manf costs March</t>
+  </si>
+  <si>
+    <t>units finished during March</t>
+  </si>
+  <si>
+    <t>equiv units complete total</t>
+  </si>
+  <si>
+    <t>equiv units complete WIP</t>
+  </si>
+  <si>
+    <t>cost of units finished in March</t>
+  </si>
+  <si>
+    <t>cost of units in WIP</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>material equiv units</t>
+  </si>
+  <si>
+    <t>coversion equiv units</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Ending WIP inventory</t>
+  </si>
+  <si>
+    <t>Cost of good completed and transferred out</t>
+  </si>
+  <si>
+    <t>conversion starting at</t>
+  </si>
+  <si>
+    <t>EOM January WIP</t>
+  </si>
+  <si>
+    <t>Units completed February</t>
+  </si>
+  <si>
+    <t>WIP conversion costs</t>
+  </si>
+  <si>
+    <t>WIP material costs</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>packing</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>WIP equiv units</t>
+  </si>
+  <si>
+    <t>total equiv units</t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>step 2</t>
+  </si>
+  <si>
+    <t>step 3 collect costs to allocate</t>
+  </si>
+  <si>
+    <t>step 4 calculate cost per equiv unit</t>
+  </si>
+  <si>
+    <t>COGM units completed during February</t>
+  </si>
+  <si>
+    <t>step 5 allocate costs</t>
+  </si>
+  <si>
+    <t>ending WIP</t>
+  </si>
+  <si>
+    <t>units started</t>
+  </si>
+  <si>
+    <t>costs added for year</t>
+  </si>
+  <si>
+    <t>units completed</t>
+  </si>
+  <si>
+    <t>ending finished goods inventory</t>
+  </si>
+  <si>
+    <t>beg finished goods inventory</t>
+  </si>
+  <si>
+    <t>beg WIP</t>
+  </si>
+  <si>
+    <t>beg WIP costs</t>
+  </si>
+  <si>
+    <t>end WIP # units</t>
+  </si>
+  <si>
+    <t>end WIP</t>
+  </si>
+  <si>
+    <t>beg WIP units</t>
+  </si>
+  <si>
+    <t>total equiv units wrt conversion</t>
+  </si>
+  <si>
+    <t>cost per equiv unit materials</t>
+  </si>
+  <si>
+    <t>current breakeven</t>
+  </si>
+  <si>
+    <t>new var costs</t>
+  </si>
+  <si>
+    <t>new breakeven</t>
+  </si>
+  <si>
+    <t>breakeven sales volume increase</t>
+  </si>
+  <si>
+    <t>estimated manf</t>
+  </si>
+  <si>
+    <t>desired profit</t>
+  </si>
+  <si>
+    <t>min price</t>
+  </si>
+  <si>
+    <t>breakeven volume annual</t>
+  </si>
+  <si>
+    <t>fixed costs monthly</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>annual volume</t>
+  </si>
+  <si>
+    <t>taxes paid</t>
+  </si>
+  <si>
+    <t>desired profit after taxes</t>
+  </si>
+  <si>
+    <t>volume required</t>
+  </si>
+  <si>
+    <t>var cost %</t>
+  </si>
+  <si>
+    <t>breakeven volume monthly</t>
+  </si>
+  <si>
+    <t>actual revenue</t>
+  </si>
+  <si>
+    <t>profit after taxes</t>
+  </si>
+  <si>
+    <t>desires profit monthly</t>
+  </si>
+  <si>
+    <t>required revenue</t>
+  </si>
+  <si>
+    <t>exp demand</t>
+  </si>
+  <si>
+    <t>price at max profit</t>
+  </si>
+  <si>
+    <t>monthly profit</t>
+  </si>
+  <si>
+    <t>contribution margin ratio</t>
+  </si>
+  <si>
+    <t>quantity sold</t>
+  </si>
+  <si>
+    <t>selling price per unit</t>
+  </si>
+  <si>
+    <t>var costs per unit</t>
+  </si>
+  <si>
+    <t>annual fixed costs</t>
+  </si>
+  <si>
+    <t>breakeven volume</t>
+  </si>
+  <si>
+    <t>2*b+m=150</t>
+  </si>
+  <si>
+    <t>desired rev</t>
+  </si>
+  <si>
+    <t>new volume</t>
+  </si>
+  <si>
+    <t>2*b+m=1150</t>
+  </si>
+  <si>
+    <t>assume b = m</t>
+  </si>
+  <si>
+    <t>new breakeven volume</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>breakeven volumes</t>
+  </si>
+  <si>
+    <t>0.5*n+0.6*u=840000</t>
+  </si>
+  <si>
+    <t>cleaning materials</t>
+  </si>
+  <si>
+    <t>var ov</t>
+  </si>
+  <si>
+    <t>fixed ov (3h at 5/h)</t>
+  </si>
+  <si>
+    <t>labor (3h at 15/h)</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>profit markup</t>
+  </si>
+  <si>
+    <t>their decision deals with excess demand</t>
+  </si>
+  <si>
+    <t>incremental cost</t>
+  </si>
+  <si>
+    <t>it might increase the total price by that amount to keep the same profit margin</t>
+  </si>
+  <si>
+    <t>units/month</t>
+  </si>
+  <si>
+    <t>framing var cost</t>
+  </si>
+  <si>
+    <t>new units sold</t>
+  </si>
+  <si>
+    <t>new sold</t>
+  </si>
+  <si>
+    <t>new framing var cost</t>
+  </si>
+  <si>
+    <t>excess supply</t>
+  </si>
+  <si>
+    <t>it would require extra  labor and materials but save $15/unt</t>
+  </si>
+  <si>
+    <t>total with</t>
+  </si>
+  <si>
+    <t>total without</t>
+  </si>
+  <si>
+    <t>total saved</t>
+  </si>
+  <si>
+    <t>new units produced</t>
+  </si>
+  <si>
+    <t>rev30outsource</t>
+  </si>
+  <si>
+    <t>rev15homemade</t>
+  </si>
+  <si>
+    <t>she should still outsource framing</t>
+  </si>
+  <si>
+    <t>monthly contribution margin</t>
+  </si>
+  <si>
+    <t>monthly volume</t>
+  </si>
+  <si>
+    <t>valves</t>
+  </si>
+  <si>
+    <t>maringal contribution</t>
+  </si>
+  <si>
+    <t>pumps lost</t>
+  </si>
+  <si>
+    <t>valves contribution</t>
+  </si>
+  <si>
+    <t>los contribution</t>
+  </si>
+  <si>
+    <t>net change in profit</t>
+  </si>
+  <si>
+    <t>breakeven unit contribution margin</t>
+  </si>
+  <si>
+    <t># customers</t>
+  </si>
+  <si>
+    <t>avg rev per visit</t>
+  </si>
+  <si>
+    <t>avg time per visit</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>monthly labor</t>
+  </si>
+  <si>
+    <t>l, m, then s revenue</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>s, m, then l revenue</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>ticket price</t>
+  </si>
+  <si>
+    <t>var cost per show</t>
+  </si>
+  <si>
+    <t>fixed cost per show</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>breakeven total rate</t>
+  </si>
+  <si>
+    <t>Randy should also consider the increased popularity of the reputation of the museum after sponsoring a school play</t>
+  </si>
+  <si>
+    <t>contribution margin per $1 wagered</t>
+  </si>
+  <si>
+    <t>replacement cost</t>
+  </si>
+  <si>
+    <t>replaced # machines</t>
+  </si>
+  <si>
+    <t>years until salvage</t>
+  </si>
+  <si>
+    <t>machine b increase wagered</t>
+  </si>
+  <si>
+    <t>cost each</t>
+  </si>
+  <si>
+    <t>today salvage val machine a</t>
+  </si>
+  <si>
+    <t>change in profit</t>
+  </si>
+  <si>
+    <t>No, the answer would remain the same because these are sunk costs</t>
+  </si>
+  <si>
+    <t>variance = actual value - budgeted (standard) value</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>as if</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>tablets/bottle</t>
+  </si>
+  <si>
+    <t>mg/tablet</t>
+  </si>
+  <si>
+    <t>budgeted materials</t>
+  </si>
+  <si>
+    <t>budgeted price per mg</t>
+  </si>
+  <si>
+    <t>budgeted labor minutes</t>
+  </si>
+  <si>
+    <t>budgeted labor rate</t>
+  </si>
+  <si>
+    <t>actual product bottles produced</t>
+  </si>
+  <si>
+    <t>labor price variance</t>
+  </si>
+  <si>
+    <t>labor quantity variance</t>
+  </si>
+  <si>
+    <t>actual q of materials recent month</t>
+  </si>
+  <si>
+    <t>actual p paid for materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual q labor used </t>
+  </si>
+  <si>
+    <t>actual p per hour</t>
+  </si>
+  <si>
+    <t>actual profit</t>
+  </si>
+  <si>
+    <t>fixed cost spending variance</t>
+  </si>
+  <si>
+    <t>total profit variance</t>
+  </si>
+  <si>
+    <t>variable cost variance</t>
+  </si>
+  <si>
+    <t>master budget profit</t>
+  </si>
+  <si>
+    <t>flexible budget profit</t>
+  </si>
+  <si>
+    <t>use equations from notes</t>
+  </si>
+  <si>
+    <t>beg balance (kg)</t>
+  </si>
+  <si>
+    <t>beg balance ($)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>units (kg)</t>
+  </si>
+  <si>
+    <t>issued out</t>
+  </si>
+  <si>
+    <t>isued out</t>
+  </si>
+  <si>
+    <t>end balance (kg)</t>
+  </si>
+  <si>
+    <t>end balance ($)</t>
+  </si>
+  <si>
+    <t>cost of material issued out</t>
+  </si>
+  <si>
+    <t>purchase price variance</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>kgs</t>
+  </si>
+  <si>
+    <t>beg inventory</t>
+  </si>
+  <si>
+    <t>plus purchases</t>
+  </si>
+  <si>
+    <t>minus issued out</t>
+  </si>
+  <si>
+    <t>plus purchase price variance</t>
+  </si>
+  <si>
+    <t>ending inventory</t>
   </si>
 </sst>
 </file>
@@ -1250,11 +1898,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,6 +1919,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1846,17 +2499,681 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0571809C-0523-4EF0-AA09-490785578CBF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8">
+        <f>D6/(D4-D5)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9">
+        <f>D5*1.5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10">
+        <f>D6/(D4-D9)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12">
+        <f>D10-D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16">
+        <f>(D15+D6)/D14+D5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24">
+        <f>12*(D21/(D19-D20))</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D26">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27">
+        <f>D26*(D19-D20)-12*D21</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>470</v>
+      </c>
+      <c r="D28">
+        <f>D27*D22</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29">
+        <f>D27-D28</f>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>467</v>
+      </c>
+      <c r="D34">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38">
+        <f>(12*D34+D36/(1-D35))/(D32-D33)</f>
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>473</v>
+      </c>
+      <c r="D41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>467</v>
+      </c>
+      <c r="D42">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>474</v>
+      </c>
+      <c r="D45">
+        <f>D42/(1-D41)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>475</v>
+      </c>
+      <c r="D47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48">
+        <f>D47*(1-D41)-D42</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>476</v>
+      </c>
+      <c r="D49">
+        <f>D48*(1-D43)</f>
+        <v>13650</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
+      <c r="D51">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>478</v>
+      </c>
+      <c r="D52">
+        <f>(D51/(1-D43)+D42)/(1-D41)</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" t="s">
+        <v>479</v>
+      </c>
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>32.5</v>
+      </c>
+      <c r="D56">
+        <v>300</v>
+      </c>
+      <c r="E56">
+        <f>D56*(C56-D$62)-D63</f>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <f>C56-2.5</f>
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <f>D56+50</f>
+        <v>350</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E60" si="0">D57*(C57-D$62)-D64</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <f t="shared" ref="C58:C60" si="1">C57-2.5</f>
+        <v>27.5</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:D60" si="2">D57+50</f>
+        <v>400</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>8572.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E60" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>480</v>
+      </c>
+      <c r="D65">
+        <f>C58</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>5.46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68">
+        <v>800</v>
+      </c>
+      <c r="E68">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>484</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>485</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>486</v>
+      </c>
+      <c r="D71">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>489</v>
+      </c>
+      <c r="D75">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>490</v>
+      </c>
+      <c r="D76" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>492</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>493</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>494</v>
+      </c>
+      <c r="E82" t="s">
+        <v>495</v>
+      </c>
+      <c r="F82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>1500000</v>
+      </c>
+      <c r="E83">
+        <v>500000</v>
+      </c>
+      <c r="F83">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84">
+        <v>750000</v>
+      </c>
+      <c r="E84">
+        <v>200000</v>
+      </c>
+      <c r="F84">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85">
+        <v>750000</v>
+      </c>
+      <c r="E85">
+        <v>300000</v>
+      </c>
+      <c r="F85">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>364</v>
+      </c>
+      <c r="F87">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D89" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>482</v>
+      </c>
+      <c r="D90">
+        <f>D85/D83</f>
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <f>E85/E83</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>464</v>
+      </c>
+      <c r="D92">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>478</v>
+      </c>
+      <c r="D93">
+        <f>D92+F86</f>
+        <v>1890000</v>
       </c>
     </row>
   </sheetData>
@@ -1866,17 +3183,823 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0832F0C9-E4F9-4241-BBD3-E7588556F34F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <f>D5/3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8">
+        <f>D7+D6+D5+D4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9">
+        <f>D8*0.5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <f>D9+D8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>3*D13*D12+3*E13*E12</f>
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>C13*150</f>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D17">
+        <f>D4+C13+D6+D7</f>
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <f>D17*150</f>
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>509</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>510</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>511</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>514</v>
+      </c>
+      <c r="D36">
+        <f>D29*D31</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>515</v>
+      </c>
+      <c r="D37">
+        <f>D26*D29</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>516</v>
+      </c>
+      <c r="D38">
+        <f>D37-D36</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>514</v>
+      </c>
+      <c r="D41">
+        <f>D40*D31</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>515</v>
+      </c>
+      <c r="D42">
+        <f>D40*D26</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>518</v>
+      </c>
+      <c r="D44">
+        <f>D29*(D23-D24-D26)-D25</f>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>519</v>
+      </c>
+      <c r="D45">
+        <f>D40*(D23-D24-D31)-D25</f>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D50">
+        <v>125000</v>
+      </c>
+      <c r="E50">
+        <f>D50*E53/D53</f>
+        <v>106250</v>
+      </c>
+      <c r="F50">
+        <f>D50-E50</f>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51">
+        <v>50000</v>
+      </c>
+      <c r="E51">
+        <f>D51*E53/D53</f>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52">
+        <v>2500</v>
+      </c>
+      <c r="E52">
+        <f>D52*E53/D53</f>
+        <v>2125</v>
+      </c>
+      <c r="G52">
+        <f>D53/D52</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53">
+        <v>10000</v>
+      </c>
+      <c r="E53">
+        <f>D53-E57</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>523</v>
+      </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="H55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>524</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <f>E57/G52</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <f>D57*D55</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>526</v>
+      </c>
+      <c r="D59">
+        <f>D55*D56</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>527</v>
+      </c>
+      <c r="D60">
+        <f>F50</f>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>528</v>
+      </c>
+      <c r="D61">
+        <f>D59-D60</f>
+        <v>-3750</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63">
+        <f>D60/D55</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>6.45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>533</v>
+      </c>
+      <c r="E65" t="s">
+        <v>534</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>531</v>
+      </c>
+      <c r="D67">
+        <v>15000</v>
+      </c>
+      <c r="E67">
+        <v>30000</v>
+      </c>
+      <c r="F67">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>536</v>
+      </c>
+      <c r="D70">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>538</v>
+      </c>
+      <c r="D72">
+        <f>D70</f>
+        <v>125</v>
+      </c>
+      <c r="E72">
+        <f>D72-F68*F66</f>
+        <v>75</v>
+      </c>
+      <c r="F72">
+        <f>F67*F66</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <f>E72</f>
+        <v>75</v>
+      </c>
+      <c r="E73">
+        <f>D73-E68*E66</f>
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <f>E66*E67</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>539</v>
+      </c>
+      <c r="D74">
+        <f>E73</f>
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>D74*D67</f>
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <f>F74+F73+F72</f>
+        <v>1575000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>537</v>
+      </c>
+      <c r="D76">
+        <f>F75</f>
+        <v>1575000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>539</v>
+      </c>
+      <c r="D78">
+        <v>125</v>
+      </c>
+      <c r="E78">
+        <f>D78-D68*D66</f>
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <f>(D78-E78)*D67</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <f>E78</f>
+        <v>75</v>
+      </c>
+      <c r="E79">
+        <f>D79-E68*E66</f>
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <f>E66*E67</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>538</v>
+      </c>
+      <c r="D80">
+        <f>E79</f>
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>F67*D80/F68</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <f>F80+F79+F78</f>
+        <v>1725000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>540</v>
+      </c>
+      <c r="D82">
+        <f>F81</f>
+        <v>1725000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>6.57</v>
+      </c>
+      <c r="D84" t="s">
+        <v>542</v>
+      </c>
+      <c r="E84" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>541</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>75</v>
+      </c>
+      <c r="F85">
+        <f>E85+D85</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>544</v>
+      </c>
+      <c r="D86">
+        <v>7.95</v>
+      </c>
+      <c r="E86">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>545</v>
+      </c>
+      <c r="D87">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>546</v>
+      </c>
+      <c r="D88">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>547</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>548</v>
+      </c>
+      <c r="D92">
+        <f>D87+D88</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>550</v>
+      </c>
+      <c r="D97">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>551</v>
+      </c>
+      <c r="D98">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>552</v>
+      </c>
+      <c r="D99">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>553</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>554</v>
+      </c>
+      <c r="D102">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>555</v>
+      </c>
+      <c r="D103">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>553</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>556</v>
+      </c>
+      <c r="D106">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>557</v>
+      </c>
+      <c r="D108">
+        <f>D102*D97*D99*D100-D103*D99+D106*D99</f>
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -1888,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA550D1-BAB1-4F6B-AEAA-D91F35147040}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2214,13 +4337,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD0019C-C6F8-4320-815D-EFECFFAEBA6B}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2432,10 +4559,19 @@
         <v>-1000</v>
       </c>
     </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f>SUM(D21:D24)</f>
+        <v>1225</v>
+      </c>
+    </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>8.36</v>
       </c>
+      <c r="H26" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
@@ -2514,7 +4650,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>560</v>
+      </c>
+      <c r="F33" t="s">
+        <v>561</v>
+      </c>
+      <c r="G33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" t="s">
         <v>152</v>
       </c>
@@ -2522,8 +4672,20 @@
         <f>(E27-F31)*D31</f>
         <v>-32.500000000000028</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f>E30*E27</f>
+        <v>750</v>
+      </c>
+      <c r="F34">
+        <f>E27*D31</f>
+        <v>812.5</v>
+      </c>
+      <c r="G34">
+        <f>E31</f>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>153</v>
       </c>
@@ -2532,7 +4694,10 @@
         <v>-62.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" t="s">
         <v>154</v>
       </c>
@@ -2540,8 +4705,20 @@
         <f>(E28-F32)*D32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f>F30*F32</f>
+        <v>6750</v>
+      </c>
+      <c r="F36">
+        <f>E32</f>
+        <v>7200</v>
+      </c>
+      <c r="G36">
+        <f>E32</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>155</v>
       </c>
@@ -2550,12 +4727,12 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>8.42</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>156</v>
       </c>
@@ -2563,7 +4740,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -2571,7 +4748,7 @@
         <v>-4500</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>158</v>
       </c>
@@ -2579,7 +4756,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>159</v>
       </c>
@@ -2587,22 +4764,543 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>560</v>
+      </c>
+      <c r="F44" t="s">
+        <v>561</v>
+      </c>
+      <c r="G44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>151</v>
       </c>
       <c r="D45">
-        <f>D41/D43+D42</f>
+        <f>F45/D43</f>
         <v>15000</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <f>D42*D43</f>
+        <v>27000</v>
+      </c>
+      <c r="F45">
+        <f>E45+D41</f>
+        <v>22500</v>
+      </c>
+      <c r="G45">
+        <f>F45+D40</f>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>160</v>
       </c>
       <c r="D46">
-        <f>D40/D45+D43</f>
+        <f>G45/D45</f>
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>563</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>564</v>
+      </c>
+      <c r="D50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>567</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>568</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>569</v>
+      </c>
+      <c r="D56">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58">
+        <v>-1875</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>570</v>
+      </c>
+      <c r="D59">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>571</v>
+      </c>
+      <c r="D60">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>560</v>
+      </c>
+      <c r="F62" t="s">
+        <v>561</v>
+      </c>
+      <c r="G62" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>572</v>
+      </c>
+      <c r="D63">
+        <f>E63-D58/D52</f>
+        <v>150000000</v>
+      </c>
+      <c r="E63">
+        <f>D56*D51</f>
+        <v>131250000</v>
+      </c>
+      <c r="F63">
+        <f>G63-D57</f>
+        <v>149997000</v>
+      </c>
+      <c r="G63">
+        <f>D63</f>
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>573</v>
+      </c>
+      <c r="D66">
+        <f>D52-D57/D63</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>574</v>
+      </c>
+      <c r="D69">
+        <f>-D60/D54+D56*D53/60</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>575</v>
+      </c>
+      <c r="D72">
+        <f>D54-D59/D69</f>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>576</v>
+      </c>
+      <c r="D75">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>577</v>
+      </c>
+      <c r="D76">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>578</v>
+      </c>
+      <c r="D78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>570</v>
+      </c>
+      <c r="D79">
+        <f>-500</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>579</v>
+      </c>
+      <c r="D82">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F83" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>580</v>
+      </c>
+      <c r="D84">
+        <f>D75-D78</f>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86">
+        <f>D78-D80-D82-D76</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>581</v>
+      </c>
+      <c r="D88">
+        <f>D86+D84</f>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>571</v>
+      </c>
+      <c r="D90">
+        <f>D82-D81-D77-D79</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>583</v>
+      </c>
+      <c r="D93">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>584</v>
+      </c>
+      <c r="D94">
+        <f>D93*2</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C96" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D96" t="s">
+        <v>586</v>
+      </c>
+      <c r="E96" t="s">
+        <v>589</v>
+      </c>
+      <c r="F96" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C97" s="4">
+        <v>45879</v>
+      </c>
+      <c r="D97" t="s">
+        <v>588</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
+      </c>
+      <c r="F97">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C98" s="4">
+        <v>45884</v>
+      </c>
+      <c r="D98" t="s">
+        <v>590</v>
+      </c>
+      <c r="E98">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C99" s="4">
+        <v>45891</v>
+      </c>
+      <c r="D99" t="s">
+        <v>588</v>
+      </c>
+      <c r="E99">
+        <v>800</v>
+      </c>
+      <c r="F99">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C100" s="4">
+        <v>45898</v>
+      </c>
+      <c r="D100" t="s">
+        <v>591</v>
+      </c>
+      <c r="E100">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>592</v>
+      </c>
+      <c r="D102">
+        <f>D93+E97-E98+E99-E100</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>593</v>
+      </c>
+      <c r="D103">
+        <f>D102*2</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>594</v>
+      </c>
+      <c r="D104">
+        <f>(E98+E100)*2</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>595</v>
+      </c>
+      <c r="D106">
+        <f>(2-F97/E97)*E97+(2-F99/E99)*E99</f>
+        <v>-181.99999999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>596</v>
+      </c>
+      <c r="D108" t="s">
+        <v>597</v>
+      </c>
+      <c r="E108" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>598</v>
+      </c>
+      <c r="D109">
+        <f>D93</f>
+        <v>4000</v>
+      </c>
+      <c r="E109">
+        <f>D94</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>599</v>
+      </c>
+      <c r="D110">
+        <f>E97+E99</f>
+        <v>1800</v>
+      </c>
+      <c r="E110">
+        <f>F97+F99</f>
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>600</v>
+      </c>
+      <c r="D111">
+        <f>E98+E100</f>
+        <v>3000</v>
+      </c>
+      <c r="E111">
+        <f>D111*2</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>601</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>602</v>
+      </c>
+      <c r="D113">
+        <f>D109+D110-D111+D112</f>
+        <v>2800</v>
+      </c>
+      <c r="E113">
+        <f>E109+E110-E111+E112</f>
+        <v>5600</v>
       </c>
     </row>
   </sheetData>
@@ -5120,7 +7818,7 @@
         <v>496500</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H18:H20" si="0">SUM(D20:G20)</f>
+        <f t="shared" ref="H20" si="0">SUM(D20:G20)</f>
         <v>973000</v>
       </c>
     </row>
@@ -5441,7 +8139,7 @@
         <v>395550</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H47:H57" si="5">SUM(D50:G50)</f>
+        <f t="shared" ref="H50:H57" si="5">SUM(D50:G50)</f>
         <v>708000</v>
       </c>
     </row>
@@ -5539,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5854F927-407D-4435-A00B-79CB19DD567D}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6384,22 +9082,964 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E35AA1-A86E-4AAE-ACC0-DDA3CDB3A684}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>15.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9">
+        <v>18750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10">
+        <v>7790000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15">
+        <f>D5+D6</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16">
+        <f>D15+D14</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <f>D6</f>
+        <v>175000</v>
+      </c>
+      <c r="E18">
+        <f>D18</f>
+        <v>175000</v>
+      </c>
+      <c r="F18">
+        <f>D18</f>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19">
+        <f>D5</f>
+        <v>75000</v>
+      </c>
+      <c r="E19">
+        <f>D19*D7</f>
+        <v>75000</v>
+      </c>
+      <c r="F19">
+        <f>D19*D8</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20">
+        <f>D19+D18</f>
+        <v>250000</v>
+      </c>
+      <c r="E20">
+        <f>E19+E18</f>
+        <v>250000</v>
+      </c>
+      <c r="F20">
+        <f>F19+F18</f>
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D22">
+        <f>E22+F22</f>
+        <v>26540000</v>
+      </c>
+      <c r="E22">
+        <f>D9</f>
+        <v>18750000</v>
+      </c>
+      <c r="F22">
+        <f>D10</f>
+        <v>7790000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23">
+        <f>D22</f>
+        <v>26540000</v>
+      </c>
+      <c r="E23">
+        <f>E22</f>
+        <v>18750000</v>
+      </c>
+      <c r="F23">
+        <f>F22</f>
+        <v>7790000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25">
+        <f>E23/E20</f>
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <f>F23/F20</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D27">
+        <f>E27+F27</f>
+        <v>19775000</v>
+      </c>
+      <c r="E27">
+        <f>E25*E18</f>
+        <v>13125000</v>
+      </c>
+      <c r="F27">
+        <f>F18*F25</f>
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28">
+        <f>E28+F28</f>
+        <v>6765000</v>
+      </c>
+      <c r="E28">
+        <f>E19*E25</f>
+        <v>5625000</v>
+      </c>
+      <c r="F28">
+        <f>F19*F25</f>
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29">
+        <f>E29+F29</f>
+        <v>26540000</v>
+      </c>
+      <c r="E29">
+        <f>E27+E28</f>
+        <v>18750000</v>
+      </c>
+      <c r="F29">
+        <f>F27+F28</f>
+        <v>7790000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>412</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D33">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36">
+        <v>3225000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38">
+        <f>D34</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40">
+        <f>D33*D35</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41">
+        <f>D40+D38</f>
+        <v>107500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43">
+        <f>D36</f>
+        <v>3225000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>407</v>
+      </c>
+      <c r="D45">
+        <f>D43/D41</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
+      <c r="D47">
+        <f>D45*D38</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
+      <c r="D48">
+        <f>D45*D40</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49">
+        <f>D48+D47</f>
+        <v>3225000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" t="s">
+        <v>423</v>
+      </c>
+      <c r="E52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D53">
+        <v>10000</v>
+      </c>
+      <c r="E53">
+        <v>7000</v>
+      </c>
+      <c r="F53">
+        <f>D57*D53+E57*E53</f>
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54">
+        <v>90000</v>
+      </c>
+      <c r="E54">
+        <v>90000</v>
+      </c>
+      <c r="F54">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>162000</v>
+      </c>
+      <c r="E56">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>407</v>
+      </c>
+      <c r="D57">
+        <f>D56/D54</f>
+        <v>1.8</v>
+      </c>
+      <c r="E57">
+        <f>E56/E54</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>15.41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>438</v>
+      </c>
+      <c r="F59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>429</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>432</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67">
+        <v>10575000</v>
+      </c>
+      <c r="E67">
+        <f>D63</f>
+        <v>2300</v>
+      </c>
+      <c r="F67">
+        <f>E67+D$64</f>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68">
+        <v>58750000</v>
+      </c>
+      <c r="E68">
+        <f>D63</f>
+        <v>2300</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F70" si="0">E68+D$64</f>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69">
+        <v>33525000</v>
+      </c>
+      <c r="E69">
+        <f>D63*D65</f>
+        <v>1150</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>22350</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>436</v>
+      </c>
+      <c r="D70">
+        <v>12720000</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>248</v>
+      </c>
+      <c r="E73" t="s">
+        <v>433</v>
+      </c>
+      <c r="F73" t="s">
+        <v>434</v>
+      </c>
+      <c r="G73" t="s">
+        <v>435</v>
+      </c>
+      <c r="H73" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <f>SUM(E74:H74)</f>
+        <v>115570000</v>
+      </c>
+      <c r="E74">
+        <f>D67</f>
+        <v>10575000</v>
+      </c>
+      <c r="F74">
+        <f>D68</f>
+        <v>58750000</v>
+      </c>
+      <c r="G74">
+        <f>D69</f>
+        <v>33525000</v>
+      </c>
+      <c r="H74">
+        <f>D70</f>
+        <v>12720000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <f>SUM(E76:H76)</f>
+        <v>5050</v>
+      </c>
+      <c r="E76">
+        <f>E74/F67</f>
+        <v>450</v>
+      </c>
+      <c r="F76">
+        <f>F74/F68</f>
+        <v>2500</v>
+      </c>
+      <c r="G76">
+        <f>G74/F69</f>
+        <v>1500</v>
+      </c>
+      <c r="H76">
+        <f>H74/F70</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D78">
+        <f>SUM(E78:H78)</f>
+        <v>107060000</v>
+      </c>
+      <c r="E78">
+        <f>E76*$D64</f>
+        <v>9540000</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78:H78" si="1">F76*$D64</f>
+        <v>53000000</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>31800000</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>12720000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>446</v>
+      </c>
+      <c r="D79">
+        <f>SUM(E79:H79)</f>
+        <v>8510000</v>
+      </c>
+      <c r="E79">
+        <f>E76*E67</f>
+        <v>1035000</v>
+      </c>
+      <c r="F79">
+        <f>F76*E68</f>
+        <v>5750000</v>
+      </c>
+      <c r="G79">
+        <f>G76*E69</f>
+        <v>1725000</v>
+      </c>
+      <c r="H79">
+        <f>E70*H76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80">
+        <f>D78+D79</f>
+        <v>115570000</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:H80" si="2">E78+E79</f>
+        <v>10575000</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>58750000</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>33525000</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>12720000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>15.45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>452</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84">
+        <v>330000</v>
+      </c>
+      <c r="E84">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>455</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <f>D84*D85/D94</f>
+        <v>300000</v>
+      </c>
+      <c r="G86">
+        <f>E84*E86*D94/(E83*D85)</f>
+        <v>633600</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>447</v>
+      </c>
+      <c r="D87">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>448</v>
+      </c>
+      <c r="D88">
+        <v>2970000</v>
+      </c>
+      <c r="E88">
+        <v>1728000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>449</v>
+      </c>
+      <c r="D89">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>451</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>450</v>
+      </c>
+      <c r="D92">
+        <f>D89-D91</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94">
+        <f>D85+D89-D87</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>457</v>
+      </c>
+      <c r="D96">
+        <f>D89+D85*E86-D94*E83</f>
+        <v>1014000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>457</v>
+      </c>
+      <c r="D98">
+        <f>(D89+D86*D85-D83*D94)</f>
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>458</v>
+      </c>
+      <c r="D99">
+        <f>(D88+D84-F86)/D98</f>
+        <v>3.0303030303030303</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>455</v>
+      </c>
+      <c r="D101">
+        <f>D85*D99</f>
+        <v>303030.30303030304</v>
+      </c>
+      <c r="E101">
+        <f>D85*E86*(E84+E88)/D96</f>
+        <v>170414.20118343196</v>
+      </c>
+      <c r="F101">
+        <f>E101+D101</f>
+        <v>473444.504213735</v>
       </c>
     </row>
   </sheetData>
